--- a/Test Data/TC_76691_Verify_Slot_Address_DIP_Switches_Are_Not_Available_In_NGDesigner.xlsx
+++ b/Test Data/TC_76691_Verify_Slot_Address_DIP_Switches_Are_Not_Available_In_NGDesigner.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A41F104-01B3-43FC-8728-E0C4D58938ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices" sheetId="7" r:id="rId1"/>
     <sheet name="Add Devices German" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -85,9 +84,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>PCH800</t>
-  </si>
-  <si>
     <t>PNI800</t>
   </si>
   <si>
@@ -152,12 +148,15 @@
   </si>
   <si>
     <t>Other Slot Cards  (2 of 18)</t>
+  </si>
+  <si>
+    <t>PCH800 5.0A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -576,11 +575,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2885ED63-2EE6-4868-8C29-94D8698C9B6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -630,7 +629,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="s">
@@ -646,17 +645,17 @@
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>21</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -703,7 +702,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>11</v>
@@ -715,10 +714,10 @@
         <v>10</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>14</v>
@@ -727,33 +726,33 @@
         <v>15</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="P8" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>13</v>
@@ -765,39 +764,39 @@
         <v>13</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="D10" s="5">
         <v>0</v>
@@ -830,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -849,11 +848,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -886,7 +885,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -903,7 +902,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="s">
@@ -919,17 +918,17 @@
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>21</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -976,7 +975,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>11</v>
@@ -988,10 +987,10 @@
         <v>10</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>14</v>
@@ -1000,33 +999,33 @@
         <v>15</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="P8" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>13</v>
@@ -1038,39 +1037,39 @@
         <v>13</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="D10" s="5">
         <v>0</v>
@@ -1103,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/TC_76691_Verify_Slot_Address_DIP_Switches_Are_Not_Available_In_NGDesigner.xlsx
+++ b/Test Data/TC_76691_Verify_Slot_Address_DIP_Switches_Are_Not_Available_In_NGDesigner.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C821DE57-7CC5-488E-B3A4-69F60DB36824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices" sheetId="7" r:id="rId1"/>
@@ -20,12 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -147,16 +142,16 @@
     <t>FB800</t>
   </si>
   <si>
-    <t>Other Slot Cards  (2 of 18)</t>
-  </si>
-  <si>
     <t>PCH800 5.0A</t>
+  </si>
+  <si>
+    <t>Other Slot Cards  (1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -575,11 +570,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,7 +697,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>11</v>
@@ -814,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5">
         <v>0</v>
@@ -829,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>21</v>
@@ -848,7 +843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -975,7 +970,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>11</v>
